--- a/individual_results/avey/160.xlsx
+++ b/individual_results/avey/160.xlsx
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.25</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
         <v>0.3333333333333333</v>
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E3" t="n">
         <v>0.6666666666666666</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J3" t="n">
         <v>0.3333333333333333</v>
@@ -598,14 +598,12 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.2857142857142858</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
         <v>0.8</v>
@@ -618,7 +616,7 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J4" t="n">
         <v>0.3333333333333333</v>
@@ -642,14 +640,12 @@
           <t>f2-score</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.3125</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="E5" t="n">
         <v>0.7142857142857142</v>
@@ -662,7 +658,7 @@
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J5" t="n">
         <v>0.3333333333333333</v>
@@ -687,13 +683,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1375554841440053</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3865656572066332</v>
+        <v>0.06717171396683416</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2547474657738023</v>
+        <v>0.04585182804800177</v>
       </c>
       <c r="E6" t="n">
         <v>0.3865656572066332</v>
@@ -708,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1596969716198995</v>
+        <v>0.9049495058460971</v>
       </c>
       <c r="J6" t="n">
         <v>0.1064646477465997</v>
@@ -754,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -800,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -846,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -879,7 +875,9 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
@@ -903,7 +901,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E11" t="n">
         <v>0.6666666666666666</v>
